--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3853.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3853.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.357204340616649</v>
+        <v>3.54598331451416</v>
       </c>
       <c r="B1">
-        <v>2.966408142241511</v>
+        <v>6.247114658355713</v>
       </c>
       <c r="C1">
-        <v>4.20872280308181</v>
+        <v>5.722426891326904</v>
       </c>
       <c r="D1">
-        <v>2.873879456483579</v>
+        <v>6.552399158477783</v>
       </c>
       <c r="E1">
-        <v>1.061987194920129</v>
+        <v>3.84219765663147</v>
       </c>
     </row>
   </sheetData>
